--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90C44F1-27ED-4BFC-8E38-A54CB261EA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1F7440-E568-46E9-BF9B-E78505E5BB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2463,10 +2463,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13</t>
-  </si>
-  <si>
-    <t>S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1</t>
+    <t>S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3</t>
+  </si>
+  <si>
+    <t>S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1</v>
+        <v>S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13</v>
+        <v>S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3683,7 +3683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BE54C7-54D6-47A7-8CCF-24055CA2EDE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6302EB-D74C-4296-A866-425E41203B8C}">
   <dimension ref="B2:F346"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6495,7 +6495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964D19D3-C173-45EC-A719-7761B211744A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B51D992-C8E2-4CB7-B8CA-3D487FFEAE76}">
   <dimension ref="B2:O374"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6574,10 +6574,10 @@
         <v>803</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>9.0853068051765087E-2</v>
+        <v>9.962144554978429E-2</v>
       </c>
       <c r="O4" t="s">
         <v>814</v>
@@ -6644,10 +6644,10 @@
         <v>803</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N6">
-        <v>9.962144554978429E-2</v>
+        <v>9.0853068051765087E-2</v>
       </c>
       <c r="O6" t="s">
         <v>814</v>
@@ -16245,7 +16245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435B04CB-A366-477B-AD97-B2F1BE2DBFDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E314CCB9-F490-4499-96BC-58D4EA64CF61}">
   <dimension ref="B2:O745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1F7440-E568-46E9-BF9B-E78505E5BB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CCA846-0233-4149-AE58-A35C5C8057D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2463,10 +2463,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3</t>
-  </si>
-  <si>
-    <t>S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6</t>
+    <t>S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15</t>
+  </si>
+  <si>
+    <t>S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6</v>
+        <v>S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3</v>
+        <v>S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3683,7 +3683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6302EB-D74C-4296-A866-425E41203B8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64628EDF-6175-445C-B45B-4A4AC52B607D}">
   <dimension ref="B2:F346"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6495,7 +6495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B51D992-C8E2-4CB7-B8CA-3D487FFEAE76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F747A9A-1577-41FC-95D0-DCBD64CFC43E}">
   <dimension ref="B2:O374"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6574,10 +6574,10 @@
         <v>803</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>9.962144554978429E-2</v>
+        <v>9.4128004225724093E-2</v>
       </c>
       <c r="O4" t="s">
         <v>814</v>
@@ -6609,10 +6609,10 @@
         <v>803</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>9.412800422572408E-2</v>
+        <v>0.49810722774892152</v>
       </c>
       <c r="O5" t="s">
         <v>814</v>
@@ -6647,7 +6647,7 @@
         <v>85</v>
       </c>
       <c r="N6">
-        <v>9.0853068051765087E-2</v>
+        <v>9.0853068051765115E-2</v>
       </c>
       <c r="O6" t="s">
         <v>814</v>
@@ -6679,10 +6679,10 @@
         <v>803</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N7">
-        <v>0.4172902544238048</v>
+        <v>9.9621445549784304E-2</v>
       </c>
       <c r="O7" t="s">
         <v>814</v>
@@ -6714,10 +6714,10 @@
         <v>803</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N8">
-        <v>0.49810722774892147</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O8" t="s">
         <v>814</v>
@@ -16245,7 +16245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E314CCB9-F490-4499-96BC-58D4EA64CF61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9743DB73-8B55-45B9-B5E3-E27D149516F3}">
   <dimension ref="B2:O745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CCA846-0233-4149-AE58-A35C5C8057D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDC1321-3398-4318-B509-08057C0DC61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2463,10 +2463,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15</t>
-  </si>
-  <si>
-    <t>S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24</t>
+    <t>S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4</t>
+  </si>
+  <si>
+    <t>S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24</v>
+        <v>S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15</v>
+        <v>S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3683,7 +3683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64628EDF-6175-445C-B45B-4A4AC52B607D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF9AFAE-4608-4012-8161-D4CD25C81016}">
   <dimension ref="B2:F346"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6495,7 +6495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F747A9A-1577-41FC-95D0-DCBD64CFC43E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0592451-348D-4CAC-9F1E-6671599814F0}">
   <dimension ref="B2:O374"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6574,10 +6574,10 @@
         <v>803</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>9.4128004225724093E-2</v>
+        <v>0.49810722774892152</v>
       </c>
       <c r="O4" t="s">
         <v>814</v>
@@ -6609,10 +6609,10 @@
         <v>803</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>0.49810722774892152</v>
+        <v>9.9621445549784304E-2</v>
       </c>
       <c r="O5" t="s">
         <v>814</v>
@@ -6679,10 +6679,10 @@
         <v>803</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>9.9621445549784304E-2</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O7" t="s">
         <v>814</v>
@@ -6714,10 +6714,10 @@
         <v>803</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N8">
-        <v>0.41729025442380491</v>
+        <v>9.4128004225724093E-2</v>
       </c>
       <c r="O8" t="s">
         <v>814</v>
@@ -16245,7 +16245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9743DB73-8B55-45B9-B5E3-E27D149516F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8515CADC-A7CA-49EE-BE9A-BF68ADB80282}">
   <dimension ref="B2:O745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDC1321-3398-4318-B509-08057C0DC61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BB195A-276C-446B-A02E-5F6F56A102B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2463,10 +2463,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4</t>
-  </si>
-  <si>
-    <t>S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02</t>
+    <t>S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3,S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18</t>
+  </si>
+  <si>
+    <t>S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6,S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02</v>
+        <v>S1aH7,S2b0625h20,S2b0625h24,S2b0626h21,S2b0629h04,S2b0629h24,S2c0807h06,S2c0808h03,S3aH6,S4aH7,S5aH6,S5aH7,S2b0627h24,S2b0629h20,S2b0630h04,S2b0630h20,S2b0701h01,S2b0701h19,S2b0701h23,S2c0806h19,S2c0807h03,S2b0625h06,S2b0627h22,S2b0628h24,S2b0630h22,S2b0701h02,S2b0701h22,S2c0806h03,S2c0807h01,S2c0808h05,S2c0809h21,S2c0811h05,S2c0811h23,S2b0626h06,S2b0626h22,S2b0628h02,S2b0628h22,S2b0630h24,S2c0806h05,S2c0807h19,S2c0808h19,S2c0809h24,S2c0812h02,S2aH1,S2b0627h03,S2b0629h22,S2b0630h23,S2b0701h03,S2b0701h05,S2c0806h01,S2c0806h21,S2c0809h02,S2c0809h06,S2c0811h03,S2c0812h19,S3aH7,S1aH6,S2b0625h01,S2b0626h03,S2b0627h05,S2b0628h21,S2b0630h01,S2c0806h06,S2c0806h24,S2c0808h20,S2c0809h04,S2c0811h02,S2c0812h03,S2c0812h04,S2b0625h03,S2b0626h05,S2b0630h19,S2b0701h20,S2c0807h23,S2c0809h20,S1aH5,S2aH5,S2b0625h02,S2b0625h05,S2b0625h21,S2b0626h04,S2b0626h23,S2b0628h04,S2b0629h02,S2b0629h23,S2b0630h05,S2c0806h02,S2c0808h21,S2c0808h22,S2c0809h05,S2c0810h23,S2c0811h19,S2c0812h05,S5aH5,S2b0627h21,S2b0701h06,S2c0806h04,S2c0807h21,S2c0808h24,S2c0809h01,S2c0809h19,S2c0810h04,S2c0811h01,S2c0811h24,S2b0626h19,S2b0627h02,S2b0627h04,S2b0627h06,S2b0627h19,S2b0628h06,S2b0630h03,S2b0701h04,S2c0808h04,S2c0808h23,S4aH6,S2b0625h22,S2b0628h05,S2b0628h19,S2b0629h05,S2b0629h19,S2b0701h21,S2b0701h24,S2c0807h04,S2c0810h01,S2c0810h05,S2c0811h21,S2c0812h01,S2c0812h06,S4aH5,S2b0627h01,S2b0630h21,S2c0807h02,S2c0809h03,S2c0809h22,S2c0810h19,S2c0810h20,S2c0810h24,S2c0812h24,S2aH6,S2b0625h19,S2b0626h02,S2b0626h24,S2b0627h20,S2b0627h23,S2b0629h01,S2b0630h02,S2c0806h22,S2c0812h22,S2c0812h23,S3aH1,S3aH5,S2b0625h23,S2b0628h01,S2b0628h23,S2b0629h03,S2c0806h20,S2c0806h23,S2c0807h24,S2c0808h02,S2c0809h23,S2c0810h21,S2c0811h22,S2c0812h20,S4aH1,S2b0625h04,S2b0626h01,S2b0626h20,S2b0628h20,S2b0629h06,S2b0629h21,S2b0630h06,S2c0807h05,S2c0807h20,S2c0810h06,S2c0810h22,S2c0811h06,S2c0812h21,S5aH1,S1aH1,S2aH7,S2b0628h03,S2c0807h22,S2c0808h01,S2c0808h06,S2c0810h02,S2c0810h03,S2c0811h04,S2c0811h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4</v>
+        <v>S1aH3,S2b0625h10,S2b0627h08,S2c0806h08,S2c0807h10,S2c0808h10,S2c0809h15,S2c0809h16,S2c0811h08,S2c0811h12,S2b0625h16,S2b0626h08,S2b0629h07,S2b0701h07,S2b0701h15,S2c0806h15,S2c0806h17,S2c0807h07,S2c0807h09,S2c0808h08,S2c0810h11,S2c0811h15,S2c0812h09,S2c0812h12,S2b0630h09,S2b0630h15,S2b0701h16,S2c0806h07,S2c0807h14,S2c0808h18,S2c0812h07,S2b0625h09,S2b0625h12,S2b0625h15,S2b0626h12,S2b0628h12,S2b0628h13,S2b0629h14,S2b0630h18,S2b0701h18,S2c0810h12,S2c0811h17,S2c0812h10,S3aH4,S4aH3,S4aH4,S2b0625h18,S2b0626h17,S2b0701h12,S2c0808h11,S2c0809h09,S2c0810h14,S2c0811h16,S2c0812h14,S4aH2,S2aH4,S2b0627h13,S2b0630h12,S2b0701h14,S2c0809h07,S2c0809h10,S2c0810h13,S2c0810h17,S5aH2,S2b0625h07,S2b0626h07,S2b0626h13,S2b0627h07,S2b0627h10,S2b0627h12,S2b0627h18,S2b0630h13,S2b0701h08,S2c0806h11,S2c0806h16,S2c0807h13,S2c0810h09,S2c0811h09,S2c0811h13,S5aH4,S2b0625h17,S2b0628h07,S2b0630h17,S2b0701h10,S2b0701h17,S2c0807h12,S2c0808h14,S2c0808h17,S2c0809h12,S2c0809h13,S2c0809h17,S2c0810h08,S2c0811h11,S1aH2,S2aH3,S2b0626h09,S2b0628h09,S2b0629h10,S2b0629h16,S2b0629h17,S2b0629h18,S2c0807h08,S2c0809h11,S2c0809h14,S2c0809h18,S2c0810h16,S2c0811h18,S2c0812h16,S2b0626h14,S2b0626h15,S2b0626h18,S2b0627h17,S2b0628h08,S2b0628h11,S2b0628h15,S2b0629h12,S2b0629h13,S2c0806h13,S2c0808h09,S2c0810h10,S2c0811h07,S2c0812h08,S2c0812h11,S2c0812h17,S3aH3,S2b0627h09,S2b0629h09,S2b0630h08,S2b0630h10,S2b0630h11,S2c0809h08,S2c0811h10,S3aH2,S2b0625h13,S2b0625h14,S2b0628h10,S2b0629h11,S2b0629h15,S2b0701h11,S2c0807h16,S2c0808h07,S2c0808h13,S2c0808h16,S2c0810h15,S2c0812h15,S2b0625h08,S2b0627h14,S2b0628h14,S2b0630h14,S2b0701h13,S2c0806h10,S2c0807h18,S1aH4,S2aH2,S2b0626h11,S2b0627h15,S2b0627h16,S2b0628h16,S2b0630h07,S2b0630h16,S2c0806h09,S2c0806h18,S2c0808h12,S2c0810h07,S2c0812h13,S2b0626h16,S2b0627h11,S2b0628h17,S2b0629h08,S2b0701h09,S2c0807h11,S2c0807h17,S2c0808h15,S2c0811h14,S5aH3,S2b0625h11,S2b0626h10,S2b0628h18,S2c0806h12,S2c0806h14,S2c0807h15,S2c0810h18,S2c0812h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3683,7 +3683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF9AFAE-4608-4012-8161-D4CD25C81016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC264FF-9515-41D9-AB2D-3A816B37D3CE}">
   <dimension ref="B2:F346"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6495,7 +6495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0592451-348D-4CAC-9F1E-6671599814F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC79A4D4-D928-430C-819E-AF6881017CEC}">
   <dimension ref="B2:O374"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6574,10 +6574,10 @@
         <v>803</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N4">
-        <v>0.49810722774892152</v>
+        <v>9.0853068051765129E-2</v>
       </c>
       <c r="O4" t="s">
         <v>814</v>
@@ -6612,7 +6612,7 @@
         <v>81</v>
       </c>
       <c r="N5">
-        <v>9.9621445549784304E-2</v>
+        <v>9.9621445549784318E-2</v>
       </c>
       <c r="O5" t="s">
         <v>814</v>
@@ -6644,10 +6644,10 @@
         <v>803</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N6">
-        <v>9.0853068051765115E-2</v>
+        <v>0.49810722774892152</v>
       </c>
       <c r="O6" t="s">
         <v>814</v>
@@ -6682,7 +6682,7 @@
         <v>75</v>
       </c>
       <c r="N7">
-        <v>0.41729025442380491</v>
+        <v>0.41729025442380496</v>
       </c>
       <c r="O7" t="s">
         <v>814</v>
@@ -16245,7 +16245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8515CADC-A7CA-49EE-BE9A-BF68ADB80282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A77666-5CC2-46D1-B690-D590DBBDCE66}">
   <dimension ref="B2:O745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
